--- a/input/rotenone_data/rotenone_concentration_results/excel/20211206_Vogel_Sample 3 Results.xlsx
+++ b/input/rotenone_data/rotenone_concentration_results/excel/20211206_Vogel_Sample 3 Results.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QQQ\Desktop\Redman\ADFG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bmeyer\Documents\GitHub\Active GitHub Projects\KWF_Vogel_Lakes_Pike\Miller_Creek_Vogel_Lake_WQX\input\rotenone_data\rotenone_concentration_results\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12360" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Benjamin Meyer</author>
+  </authors>
+  <commentList>
+    <comment ref="A11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Benjamin Meyer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+modified sample name to miller creek 2</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="43">
   <si>
@@ -136,12 +170,6 @@
     <t>Detected</t>
   </si>
   <si>
-    <t>Miller Creek_a</t>
-  </si>
-  <si>
-    <t>Miller Creek_b</t>
-  </si>
-  <si>
     <t>25 ppb QC</t>
   </si>
   <si>
@@ -155,13 +183,19 @@
   </si>
   <si>
     <t>N. Vogel Benthic_b</t>
+  </si>
+  <si>
+    <t>Miller Creek 2_a</t>
+  </si>
+  <si>
+    <t>Miller Creek 2_b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +218,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2151,11 +2198,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2274,7 +2321,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3">
         <v>44532</v>
@@ -2303,7 +2350,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" s="3">
         <v>44532</v>
@@ -2390,7 +2437,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" s="3">
         <v>44532</v>
@@ -2419,7 +2466,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" s="3">
         <v>44532</v>
@@ -2448,7 +2495,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B11" s="3">
         <v>44533</v>
@@ -2477,7 +2524,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B12" s="3">
         <v>44533</v>
@@ -2535,7 +2582,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>28</v>
@@ -2607,6 +2654,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2891,7 +2939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
